--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcLoanIntCashFlow.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcLoanIntCashFlow.xlsx
@@ -1,32 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D326531-55BD-432A-A32A-87051F9EEAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="核對" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -145,10 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DECIMALD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,11 +388,14 @@
   <si>
     <t>;</t>
   </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -574,14 +564,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -590,9 +580,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -620,13 +607,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -683,9 +664,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -723,9 +704,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -760,7 +741,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -795,7 +776,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -968,11 +949,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -980,624 +961,610 @@
     <col min="1" max="1" width="4.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="22.21875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="7" customWidth="1"/>
     <col min="5" max="6" width="4.6640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="48" style="4" customWidth="1"/>
-    <col min="8" max="8" width="41" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="21.44140625" style="5"/>
+    <col min="8" max="8" width="41" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="21.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-    </row>
-    <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="10" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="23" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+    <row r="9" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
         <v>1</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="22">
+      <c r="B9" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="19">
         <v>6</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="F9" s="19"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
         <v>2</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="22">
+      <c r="B10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="19">
         <v>7</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="F10" s="19"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
         <f t="shared" ref="A11:A30" si="0">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="19">
+        <v>3</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C12" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="19">
+        <v>3</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="19">
+        <v>3</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="19">
+        <v>8</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="19">
+        <v>8</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="19">
+        <v>16</v>
+      </c>
+      <c r="F16" s="19">
+        <v>2</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="19">
+        <v>6</v>
+      </c>
+      <c r="F17" s="19">
+        <v>4</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="19">
+        <v>16</v>
+      </c>
+      <c r="F18" s="19">
+        <v>2</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="19">
+        <v>16</v>
+      </c>
+      <c r="F19" s="19">
+        <v>2</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="22">
+      <c r="C20" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="19">
+        <v>16</v>
+      </c>
+      <c r="F20" s="19">
+        <v>2</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="19">
+        <v>16</v>
+      </c>
+      <c r="F21" s="19">
+        <v>2</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="19">
+        <v>1</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="81" x14ac:dyDescent="0.3">
+      <c r="A23" s="18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="19">
+        <v>1</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="19">
         <v>3</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B12" s="21" t="s">
+      <c r="F24" s="19"/>
+      <c r="G24" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="19">
+        <v>8</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="22">
-        <v>3</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="22">
-        <v>3</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
-        <f t="shared" si="0"/>
+      <c r="C26" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="19">
+        <v>16</v>
+      </c>
+      <c r="F26" s="19">
+        <v>2</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="18">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="19">
         <v>6</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="22">
-        <v>8</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="22">
-        <v>8</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="22">
-        <v>16</v>
-      </c>
-      <c r="F16" s="22">
-        <v>2</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="22">
+      <c r="F28" s="19"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="19">
         <v>6</v>
       </c>
-      <c r="F17" s="22">
-        <v>4</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="22">
-        <v>16</v>
-      </c>
-      <c r="F18" s="22">
-        <v>2</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="22">
-        <v>16</v>
-      </c>
-      <c r="F19" s="22">
-        <v>2</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="22">
-        <v>16</v>
-      </c>
-      <c r="F20" s="22">
-        <v>2</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="22">
-        <v>16</v>
-      </c>
-      <c r="F21" s="22">
-        <v>2</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="21">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="22">
-        <v>1</v>
-      </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" ht="81" x14ac:dyDescent="0.3">
-      <c r="A23" s="21">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="22">
-        <v>1</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="22">
-        <v>3</v>
-      </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="22">
-        <v>8</v>
-      </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="22">
-        <v>16</v>
-      </c>
-      <c r="F26" s="22">
-        <v>2</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="22">
-        <v>6</v>
-      </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="22">
-        <v>6</v>
-      </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="5"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1616,7 +1583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1633,25 +1600,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>75</v>
+      <c r="C2" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1662,10 +1629,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1673,87 +1640,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
